--- a/biology/Zoologie/Amyzon/Amyzon.xlsx
+++ b/biology/Zoologie/Amyzon/Amyzon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Amyzon est un genre éteint † de poissons téléostéens de la famille des Catostomidae et de l'ordre des Cypriniformes.
-Amyzon fut décrit pour la première en 1872 par ED Cope[1]. Il y a 4 espèces valides dans le genre. Amyzon se retrouve dans les sites de fossiles en Amérique du Nord datés de l'éocène inférieur dans l'État de Washington (États-Unis), et en Colombie-Britannique au Canada, y compris dans les gisements fossilifères McAbee, Driftwood Canyon, et les lits Horsefly[2], ainsi que des sites de l'oligocène inférieur au Nevada.
+Amyzon fut décrit pour la première en 1872 par ED Cope. Il y a 4 espèces valides dans le genre. Amyzon se retrouve dans les sites de fossiles en Amérique du Nord datés de l'éocène inférieur dans l'État de Washington (États-Unis), et en Colombie-Britannique au Canada, y compris dans les gisements fossilifères McAbee, Driftwood Canyon, et les lits Horsefly, ainsi que des sites de l'oligocène inférieur au Nevada.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Bruner, JC (1991)[3]:
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Bruner, JC (1991):
 Amyzon aggregatum (Wilson, 1977)†
 Amyzon brevipinne (Cope, 1894)†
 Amyzon commune (Cope, 1874)†
